--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +483,7 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>295.14</v>
       </c>
@@ -508,11 +507,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -536,11 +531,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>203.92</v>
       </c>
@@ -550,6 +541,119 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Elon Musk's tweet about AI may direct some attention towards AI-related companies. As Apple is one of those leading technology companies, it may benefit in the mid to long term.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Evaluated 2 recent predictions: 0 correct (0.0%).
+❌ HOLD TSLA was bad. 295.14 → 295.14
+⚠️ Could not fetch data for TWTR.
+❌ BUY AAPL was bad. 203.92 → 203.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>295.14</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Elon Musk's sarcastic responses to Trump's policies are drawing increased attention and awareness. If Musk continues his vocal support for progressive, technology-forward polices against Trump's conservative viewpoints, it could potentially drive positive sentiment and investor interest towards Tesla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>384.34</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>As Trump emphasizes on protecting Medicaid for American citizens, companies like HCA Healthcare, a major operater of hospitals across United States, may see increased patient volume. Yet, the extent of the impact is unclear and subjected to details of any policy changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>614</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Donald Trump's focus on uniting Republicans for tax cuts can potentially benefit financial institutions like Goldman Sachs. Particularly if there is a significant corporate tax cut, GS could see an increase in their after-tax earnings.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,15 +584,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>295.14</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>45816</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -612,15 +608,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>384.34</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>45816</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -640,20 +632,131 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>614</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>45816</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Donald Trump's focus on uniting Republicans for tax cuts can potentially benefit financial institutions like Goldman Sachs. Particularly if there is a significant corporate tax cut, GS could see an increase in their after-tax earnings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Evaluated 5 recent predictions: 1 correct (20.0%).
+✅ BUY TSLA was good. 295.14 → 308.58
+❌ HOLD HCA was bad. 384.34 → 373.01
+❌ BUY GS was bad. 614.0 → 613.52
+❌ HOLD TSLA was bad. 295.14 → 308.58
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>308.58</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Regardless of the feud, Elon Musk's lighter approach and continued public appearances keep attracting positive publicity for Tesla. Mainly due to Musk's public relevance, the stock might see a surge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>This platform is where these feuds typically happen, which drives more user engagement. However, considering the volatile nature of such engagements, it might not necessarily drive the stock price higher.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>303.19</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>The recent focus on immigration issues related to Medicaid by Trump might influence uncertainty around healthcare companies like UnitedHealth Group. This could potentially create downward pressure on the stock.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,15 +687,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>308.58</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>45817</v>
       </c>
       <c r="F10" t="inlineStr">
@@ -715,15 +711,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>45817</v>
       </c>
       <c r="F11" t="inlineStr">
@@ -743,20 +735,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>303.19</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>45817</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>The recent focus on immigration issues related to Medicaid by Trump might influence uncertainty around healthcare companies like UnitedHealth Group. This could potentially create downward pressure on the stock.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Evaluated 7 recent predictions: 3 correct (42.86%).
+✅ BUY TSLA was good. 308.58 → 326.09
+⚠️ Could not fetch data for TWTR.
+❌ SELL UNH was bad. 303.19 → 303.79
+✅ BUY TSLA was good. 295.14 → 326.09
+❌ HOLD HCA was bad. 384.34 → 364.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>326.09</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No direct showcasing of Tesla's progress or value in Elon's tweets, but still maintaining a regular stream of communication to the public about the company. It's also worth considering the context of EV market stability which has a direct impact on TSLA's performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Elon Musk's humorously commenting on Twitter's dynamics could potentially generate more attention towards the platform hence more users, potentially giving Twitter's ad sales and overall revenue a boost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ANTM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ANTM (Anthem, one of the largest Medicaid insurers) could be negatively impacted if Trump's unity for a Medicaid limiting bill succeeds. This could potentially reduce the total number of insured customers, thus limiting ANTM's revenue.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,15 +790,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>326.09</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>45818</v>
       </c>
       <c r="F14" t="inlineStr">
@@ -818,15 +814,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>45818</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -846,20 +838,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>45818</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>ANTM (Anthem, one of the largest Medicaid insurers) could be negatively impacted if Trump's unity for a Medicaid limiting bill succeeds. This could potentially reduce the total number of insured customers, thus limiting ANTM's revenue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Evaluated 8 recent predictions: 3 correct (37.5%).
+❌ HOLD TSLA was bad. 326.09 → 326.43
+⚠️ Could not fetch data for TWTR.
+⚠️ Could not fetch data for ANTM.
+✅ BUY TSLA was good. 308.58 → 326.43
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>326.43</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Elon Musk's tweets are increasing the popularity and visibility of Tesla, potentially driving more interest and sales. His positive stance on artificial intelligence could also stimulate further interest and investment in Teslas's AI initiatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Given that both Elon Musk and Donald Trump are influential figures with large followings on Twitter, their contrasting tweets can increase activity and engagement on the platform. However, the unpredictability of their statements makes it hard to establish a clear investment strategy. Maintain current position and wait for further developments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>142.83</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation could also benefit from Elon Musk's tweets that show support for AI, as the company is a leading player in AI technology. Increased interest in AI could drive up demand for NVIDIA's products and services, driving stock performance.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,15 +893,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>326.43</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>45819</v>
       </c>
       <c r="F18" t="inlineStr">
@@ -921,15 +917,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>45819</v>
       </c>
       <c r="F19" t="inlineStr">
@@ -949,20 +941,131 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>142.83</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>45819</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>NVIDIA Corporation could also benefit from Elon Musk's tweets that show support for AI, as the company is a leading player in AI technology. Increased interest in AI could drive up demand for NVIDIA's products and services, driving stock performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Evaluated 14 recent predictions: 6 correct (42.86%).
+❌ BUY TSLA was bad. 326.43 → 319.11
+❌ HOLD TWTR was bad. 0.0 → 53.70
+✅ BUY NVDA was good. 142.83 → 145.00
+❌ HOLD TSLA was bad. 326.09 → 319.11
+✅ BUY TWTR was good. 0.0 → 53.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>319.11</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Elon Musk's light-hearted and positive presence on social media could potentially boost consumer sentiment around Tesla and drive stock growth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Considering both Elon Musk's and Donald Trump's impactful statuses on this platform, any potential changes in Twitter regulations or controls could impact its stock in an unpredictable manner. Best to wait and watch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>140.98</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>If Trump's views about 'Republican unity' on proposed legislation lead to a more inward-looking policy, defense companies like Raytheon Technologies might be negatively impacted due to potential cuts in defense budgets.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,15 +996,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>319.11</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>45820</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -1024,15 +1020,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>53.7</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>45820</v>
       </c>
       <c r="F23" t="inlineStr">
@@ -1052,20 +1044,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>140.98</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>45820</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>If Trump's views about 'Republican unity' on proposed legislation lead to a more inward-looking policy, defense companies like Raytheon Technologies might be negatively impacted due to potential cuts in defense budgets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Evaluated 12 recent predictions: 3 correct (25.0%).
+❌ SELL RTX was bad. 140.98 → 145.69
+⚠️ Could not fetch data for TWTR.
+✅ BUY TSLA was good. 319.11 → 325.31
+❌ BUY NVDA was bad. 142.83 → 141.97
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>325.31</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Given the lack of direct conflicts or debates in Musk's recent tweets, it suggests no immediate impact on Tesla. Hence, it is advisable to hold on to the stock as per current scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Given the continuous use of the platform by influential personalities like Elon Musk and Donald Trump, the platform's relevance and influence seem to remain high, indicating potential user growth and increased ad revenue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>264.95</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Trump's focus on political issues pertaining to a Supreme Court matter and a legislative bill could create uncertainty in the macroeconomic environment, potentially affecting JPMorgan's stock adversely.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,15 +1099,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>325.31</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>45821</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -1127,15 +1123,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>45821</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -1155,20 +1147,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>264.95</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>45821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Trump's focus on political issues pertaining to a Supreme Court matter and a legislative bill could create uncertainty in the macroeconomic environment, potentially affecting JPMorgan's stock adversely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Evaluated 14 recent predictions: 3 correct (21.43%).
+❌ SELL JPM was bad. 264.95 → 264.95
+⚠️ Could not fetch data for TWTR.
+❌ HOLD TSLA was bad. 325.31 → 325.31
+❌ SELL RTX was bad. 140.98 → 145.69
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>325.31</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Elon Musk's tweets do not seem to hint towards any significant changes in the operations of Tesla Inc. He is not commenting on electric vehicles, but is making comedic comments about Twitter and AI, which do not directly impact Tesla's business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Given that Elon Musk is discussing Twitter in his posts, this could potentially put Twitter in the spotlight and maybe even lead to an increase in user growth or engagement figure, potentially giving its stock price a boost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Donald Trump is addressing changes to Medicaid, which may create potential uncertainty for healthcare companies like HCA Healthcare dealing with such payments. As it's unclear on whether these changes will be beneficial or not, it may be safer to sell.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,15 +1202,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>325.31</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>45822</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -1230,15 +1226,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>45822</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -1258,20 +1250,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
         <v>371.18</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>45822</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Donald Trump is addressing changes to Medicaid, which may create potential uncertainty for healthcare companies like HCA Healthcare dealing with such payments. As it's unclear on whether these changes will be beneficial or not, it may be safer to sell.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Evaluated 16 recent predictions: 3 correct (18.75%).
+❌ SELL HCA was bad. 371.18 → 371.18
+⚠️ Could not fetch data for TWTR.
+❌ HOLD TSLA was bad. 325.31 → 325.31
+❌ SELL JPM was bad. 264.95 → 264.95
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>325.31</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Given that Elon Musk's tweets are more abstract and unrelated, it doesn't seem there's a direct impact on Tesla for now. Still, the tech sector is volatile so keep a close watch on any significant shifts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>313.53</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Trump advocating for legislation to reform Medicaid could potentially benefit health insurance companies like UnitedHealth Group. Carefully monitor the political situation regarding health policies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>613.54</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Given Trump's advocacy for tax cuts, this could potentially improve business conditions for companies in the financial sector like Goldman Sachs.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,15 +1305,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>325.31</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>45823</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -1333,15 +1329,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>313.53</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>45823</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -1361,20 +1353,131 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>613.54</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>45823</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Given Trump's advocacy for tax cuts, this could potentially improve business conditions for companies in the financial sector like Goldman Sachs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Evaluated 19 recent predictions: 8 correct (42.11%).
+✅ BUY GS was good. 613.54 → 627.85
+❌ BUY UNH was bad. 313.53 → 307.66
+❌ HOLD TSLA was bad. 325.31 → 329.13
+✅ SELL HCA was good. 371.18 → 368.59
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>329.13</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Despite the cryptic nature of Musk's tweets, attention to his comments could lead to increased visibility and investor sentiment for Tesla. Meanwhile, there's no direct conflict with Trump's views.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Trump's urges for Medicaid changes may possibly impact pharmaceutical companies like Pfizer. However, without clear details on the proposed changes, it's best to hold until the path becomes certain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>201.7</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>If tax cuts are passed as Trump suggests, defence contractors like Boeing may see less demand as government spending shrinks. Therefore, sell may be a better option.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,15 +1408,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>329.13</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>45824</v>
       </c>
       <c r="F38" t="inlineStr">
@@ -1436,15 +1432,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>24.4</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>45824</v>
       </c>
       <c r="F39" t="inlineStr">
@@ -1464,20 +1456,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
         <v>201.7</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>45824</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>If tax cuts are passed as Trump suggests, defence contractors like Boeing may see less demand as government spending shrinks. Therefore, sell may be a better option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Evaluated 22 recent predictions: 6 correct (27.27%).
+✅ SELL BA was good. 201.7 → 200.26
+❌ HOLD PFE was bad. 24.4 → 24.00
+❌ BUY TSLA was bad. 329.13 → 316.35
+✅ BUY GS was good. 613.54 → 624.64
+❌ BUY UNH was bad. 313.53 → 308.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>316.35</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Elon Musk's comments on AI could potentially affect future progress of Tesla's self-driving technology. However, there is no apparent direct conflict with Donald Trump that would massively impact the company's status.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Both Musk and Trump are influential figures with significant followings on Twitter. Their ongoing separate conversations on the platform could drive more user engagement and ad revenue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>200.26</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>If Trump's focus on legislation and tax reform leads to negative economic impact, this could potentially affect production and sales for companies like Boeing that are heavily dependent on government contracts.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,15 +1511,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>316.35</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>45825</v>
       </c>
       <c r="F42" t="inlineStr">
@@ -1539,15 +1535,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>45825</v>
       </c>
       <c r="F43" t="inlineStr">
@@ -1567,20 +1559,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
         <v>200.26</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>45825</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>If Trump's focus on legislation and tax reform leads to negative economic impact, this could potentially affect production and sales for companies like Boeing that are heavily dependent on government contracts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Evaluated 24 recent predictions: 8 correct (33.33%).
+✅ SELL BA was good. 200.26 → 197.68
+⚠️ Could not fetch data for TWTR.
+❌ HOLD TSLA was bad. 316.35 → 322.05
+✅ SELL BA was good. 201.7 → 197.68
+❌ HOLD PFE was bad. 24.4 → 23.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>322.05</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Even though there is no direct debate between Musk and Trump, Tesla could potentially be impacted by policies passed in the bill mentioned by Trump. However, since the impact is uncertain, it's safest to hold and wait for further developments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Elon Musk's active discussions about changes to Twitter or overall social media experiences might drive attention to Twitter and potentially raise its stock price.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>196.58</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>If the significant bill mentioned by Trump introduces changes that impact big tech companies negatively, Apple, as one of the industry's leaders, might face a downturn.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1614,15 +1614,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
         <v>322.05</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>45826</v>
       </c>
       <c r="F46" t="inlineStr">
@@ -1642,15 +1638,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>45826</v>
       </c>
       <c r="F47" t="inlineStr">
@@ -1670,20 +1662,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>196.58</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="2" t="n">
         <v>45826</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>If the significant bill mentioned by Trump introduces changes that impact big tech companies negatively, Apple, as one of the industry's leaders, might face a downturn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Evaluated 26 recent predictions: 8 correct (30.77%).
+❌ SELL AAPL was bad. 196.58 → 196.58
+⚠️ Could not fetch data for TWTR.
+❌ HOLD TSLA was bad. 322.05 → 322.05
+✅ SELL BA was good. 200.26 → 197.68
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>322.05</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Elon Musk's frequent commentary on social media could generate attention and speculation towards Tesla, potentially driving the stock's demand and price up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Musk's comments about social media dynamics may stir some interest in Twitter. However, his influence might not be strong enough to alter the stock's trajectory substantially.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>XLC</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>103.47</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Trump's political remarks are not directly affecting this stock, representing companies in the communication services sector. Hold off investment until there's more clarity.</t>
         </is>
       </c>
     </row>

--- a/prediction_history.xlsx
+++ b/prediction_history.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,15 +1717,11 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>322.05</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>45827</v>
       </c>
       <c r="F50" t="inlineStr">
@@ -1745,15 +1741,11 @@
           <t>HOLD</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>45827</v>
       </c>
       <c r="F51" t="inlineStr">
@@ -1773,20 +1765,131 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
         <v>103.47</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>45827</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Trump's political remarks are not directly affecting this stock, representing companies in the communication services sector. Hold off investment until there's more clarity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EVALUATION</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Evaluated 28 recent predictions: 11 correct (39.29%).
+✅ SELL XLC was good. 103.47 → 102.84
+⚠️ Could not fetch data for TWTR.
+✅ BUY TSLA was good. 322.05 → 322.16
+❌ SELL AAPL was bad. 196.58 → 201.00
+⚠️ Could not fetch data for TWTR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Elon Musk's comments on Twitter do not seem to affect Tesla's operations directly, but his presence and ongoing communications can influence public sentiment. It's better to HOLD until a stronger indicator presents itself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Elon Musk's comments about Twitter might increase public interest in the platform and might have a positive impact on its stock price. Furthermore, Trump's utilization of the platform for political comments suggests its continued relevance and influence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>240.54</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Trump's criticism of the radical left may lead to market volatility, especially in tech sectors which includes companies like Microsoft and Apple that make up a large portion of the technology-sector ETF XLK; it might be best to take a Sell decision until the situation stabilizes.</t>
         </is>
       </c>
     </row>
